--- a/sputnik/personal/uch/uch141.xlsx
+++ b/sputnik/personal/uch/uch141.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -48,11 +48,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,13 +177,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,10 +277,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +311,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -488,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -498,7 +496,7 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -507,8 +505,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -522,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -534,7 +532,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="12">
         <v>43221</v>
       </c>
@@ -546,7 +544,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="12">
         <v>43221</v>
       </c>
@@ -558,7 +556,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="13">
         <v>43466</v>
       </c>
@@ -570,7 +568,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="14">
         <v>43586</v>
       </c>
@@ -582,7 +580,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -596,12 +594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -610,12 +608,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch141.xlsx
+++ b/sputnik/personal/uch/uch141.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,16 +43,19 @@
   </si>
   <si>
     <t>Начислена оплата за аренду зем.участка №141 за 2019</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +188,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -245,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,9 +281,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,6 +316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -486,17 +492,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -505,8 +511,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -520,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -532,7 +538,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43221</v>
       </c>
@@ -544,7 +550,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43221</v>
       </c>
@@ -556,7 +562,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43466</v>
       </c>
@@ -568,7 +574,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43586</v>
       </c>
@@ -580,10 +586,16 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>11798.82</v>
+      </c>
       <c r="D8" s="10"/>
     </row>
   </sheetData>
@@ -594,12 +606,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,12 +620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch141.xlsx
+++ b/sputnik/personal/uch/uch141.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена оплата за аренду земельного участка за 2021</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,6 +603,78 @@
         <v>11798.82</v>
       </c>
       <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10">
+        <v>12116.97</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>44197</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10">
+        <v>448.32</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch141.xlsx
+++ b/sputnik/personal/uch/uch141.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Начислена оплата за аренду земельного участка за 2021</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос</t>
+  </si>
+  <si>
+    <t>Оплачены пени</t>
+  </si>
+  <si>
+    <t>Начислены пени</t>
   </si>
 </sst>
 </file>
@@ -78,7 +87,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,9 +192,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,6 +207,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,10 +537,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -533,148 +551,184 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="15">
         <v>6288.53</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="16">
         <v>10244.43</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>43221</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="16">
         <v>681.75</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43466</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>872.64</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>43586</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>10098.99</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>43952</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>11798.82</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>44317</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>12116.97</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>44197</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>448.32</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="14">
+        <v>44190</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="15">
+        <v>6288.53</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="14">
+        <v>44190</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="16">
+        <v>10244.43</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="14">
+        <v>44190</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16">
+        <v>681.75</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="14">
+        <v>44190</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <v>8062.24</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="14">
+        <v>44190</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <v>8062.24</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch141.xlsx
+++ b/sputnik/personal/uch/uch141.xlsx
@@ -70,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -171,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,6 +218,11 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +535,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,26 +695,26 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="17">
         <v>44190</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="18">
         <v>8062.24</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="17">
         <v>44190</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18">
         <v>8062.24</v>
       </c>
     </row>
